--- a/external-docs/docs/arch-diagram.xlsx
+++ b/external-docs/docs/arch-diagram.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Corda/conclave2/external-docs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{331CB8EB-52B5-774D-B364-4733984E8B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDF2F46-1FEA-2446-B403-A8E157E3CEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{2ED672D7-C865-D444-BDEA-C0A5C51D3721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$3:$J$9</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -355,13 +358,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>86985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>817672</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>144976</xdr:rowOff>
@@ -414,13 +417,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>11598</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>173973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>806073</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>173973</xdr:rowOff>
@@ -473,13 +476,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>417534</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>11598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>417534</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>173973</xdr:rowOff>
@@ -830,84 +833,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BDCF0D-AF12-514B-A4F7-D1238802FD19}">
-  <dimension ref="A3:H9"/>
+  <dimension ref="B3:I9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="218" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="D6" s="7" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="D7" s="7"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="8" t="s">
+    <row r="8" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B7"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="H6:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/external-docs/docs/arch-diagram.xlsx
+++ b/external-docs/docs/arch-diagram.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Corda/conclave2/external-docs/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Corda/conclave2/docs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDF2F46-1FEA-2446-B403-A8E157E3CEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C80F5-7FE4-3244-9FEE-C9BDA2DF23B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{2ED672D7-C865-D444-BDEA-C0A5C51D3721}"/>
+    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" xr2:uid="{2ED672D7-C865-D444-BDEA-C0A5C51D3721}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$3:$J$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$3:$K$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>CPU</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Operating system</t>
   </si>
@@ -50,13 +47,13 @@
     <t>Enclave</t>
   </si>
   <si>
-    <t>Boundary</t>
-  </si>
-  <si>
     <t>Client</t>
   </si>
   <si>
     <t>Intel</t>
+  </si>
+  <si>
+    <t>CPU/Memory</t>
   </si>
 </sst>
 </file>
@@ -100,11 +97,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -117,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -189,87 +187,59 @@
       <left style="dotted">
         <color theme="4"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <right/>
       <top style="dotted">
         <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
+      <left/>
       <right style="dotted">
         <color theme="4"/>
       </right>
       <top style="dotted">
         <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
         <color theme="4"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
+      <left/>
       <right style="dotted">
         <color theme="4"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
         <color theme="4"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="dotted">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
+      <left/>
       <right style="dotted">
         <color theme="4"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom style="dotted">
         <color theme="4"/>
       </bottom>
@@ -279,23 +249,26 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -304,42 +277,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
-    <cellStyle name="60% - Accent2" xfId="5" builtinId="36"/>
-    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
+    <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
-    <cellStyle name="Style 1" xfId="6" xr:uid="{7568ACB2-0B37-9C47-A9AA-7D5E3A13B5A6}"/>
+    <cellStyle name="Style 1" xfId="5" xr:uid="{7568ACB2-0B37-9C47-A9AA-7D5E3A13B5A6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,16 +340,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732953</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>86985</xdr:rowOff>
+      <xdr:rowOff>101329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>817672</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91199</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>144976</xdr:rowOff>
+      <xdr:rowOff>145238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -382,15 +364,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1646942" y="492921"/>
-          <a:ext cx="1641141" cy="260959"/>
+          <a:off x="2381251" y="506648"/>
+          <a:ext cx="1830693" cy="246569"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="tx2"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -417,14 +399,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>11598</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>726197</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>173973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>806073</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94574</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>173973</xdr:rowOff>
     </xdr:to>
@@ -441,15 +423,74 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1658539" y="1188813"/>
-          <a:ext cx="794475" cy="0"/>
+          <a:off x="2374495" y="1187271"/>
+          <a:ext cx="1016675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>360114</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>360114</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE598FD2-6E1A-0B49-B7BD-5642544F93A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4480859" y="516782"/>
+          <a:ext cx="0" cy="597846"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -477,22 +518,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>417534</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>11598</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>417534</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>173973</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE598FD2-6E1A-0B49-B7BD-5642544F93A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26409C0-95CA-9D48-9D25-5079FAB21FAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -500,20 +541,183 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4534886" y="620502"/>
-          <a:ext cx="0" cy="568311"/>
+          <a:off x="5421143" y="533670"/>
+          <a:ext cx="0" cy="759974"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="tx2"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>483005</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>368165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>483005</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>77686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A9E24A-AFFA-484E-8749-0059615BE808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5427899" y="1584122"/>
+          <a:ext cx="0" cy="689043"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>814420</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>243600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>425585</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>243600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BF4633-C402-2847-9B97-E9521303D6BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="814420" y="2006738"/>
+          <a:ext cx="435314" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371543</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124973</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>341144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE0FDC5-61CA-5E44-A317-46B666F681AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1195692" y="1874601"/>
+          <a:ext cx="1401728" cy="229681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -527,10 +731,20 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Encrypted to enclave</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -833,82 +1047,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BDCF0D-AF12-514B-A4F7-D1238802FD19}">
-  <dimension ref="B3:I9"/>
+  <dimension ref="B3:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="218" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="376" zoomScaleNormal="376" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="2.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>6</v>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>4</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="13"/>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="E6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="E6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B3:C7"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="E6:F7"/>
-    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B3:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
